--- a/MDS2020 Data Mining/hw3/answer book-hw3.xlsx
+++ b/MDS2020 Data Mining/hw3/answer book-hw3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1F91585B-16EF-4AF6-BDB0-FF6640194047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E3EE86-755C-4AF2-875E-918A99CEB5B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B482226-9653-4D97-B630-B98C64C10618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,60 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,9 +544,6 @@
     <t>Q4-3</t>
   </si>
   <si>
-    <t>Plain Logistic Regression model, or LinearSVC</t>
-  </si>
-  <si>
     <t>Q5-1</t>
   </si>
   <si>
@@ -502,9 +551,6 @@
   </si>
   <si>
     <t>Q5-3</t>
-  </si>
-  <si>
-    <t>OneVsOneClassifier or OneVsRestClassifier</t>
   </si>
   <si>
     <t>Rounding to 3 decimal places</t>
@@ -678,9 +724,6 @@
 </t>
   </si>
   <si>
-    <t>increase, decrease, or unchanged</t>
-  </si>
-  <si>
     <t>What is the mean Macro-F1 score obtained through simplified nested cross-validation for the Logistic Regression model, using the optimal 'solver' from the solver_candidates, when wrapped in a OneVsOneClassifier?</t>
   </si>
   <si>
@@ -721,24 +764,64 @@
     <t>One from [RBF-SVM, LinearSVC, DecisionTree]</t>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinearSVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ordered list of [RBF-SVM, LinearSVC, DecisionTree]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[RBF-SVM, LinearSVC, DecisionTree]</t>
+  </si>
+  <si>
+    <t>Plain Logistic Regression model, or LinearSVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain Logistic Regression model</t>
+  </si>
+  <si>
+    <t>increase, decrease, or unchanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>OneVsOneClassifier or OneVsRestClassifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneVsOneClassifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -747,7 +830,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -755,7 +838,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -810,33 +893,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -849,6 +931,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1140,265 +1301,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="71.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="80.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="94.54296875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="17.5">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="49.15" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="70.900000000000006" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="79.900000000000006" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="84" customHeight="1"/>
+    <row r="7" spans="1:5" ht="68.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64.900000000000006" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="135.65" customHeight="1"/>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="42.65" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="63" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="58.9" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="214.9" customHeight="1"/>
+    <row r="14" spans="1:5" ht="228.65" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="214.9" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="97.9" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="49.15" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="71.5" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" customHeight="1">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="88.15" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="78.650000000000006" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="68.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="70.900000000000006" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="79.900000000000006" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="84" customHeight="1"/>
-    <row r="7" spans="1:5" ht="68.45" customHeight="1">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64.900000000000006" customHeight="1">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135.6" customHeight="1"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="63" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="58.9" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="214.9" customHeight="1"/>
-    <row r="14" spans="1:5" ht="228.6" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="214.9" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="97.9" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="71.45" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="42" customHeight="1">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="88.15" customHeight="1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="78.599999999999994" customHeight="1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="68.45" customHeight="1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,7 +1633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MDS2020 Data Mining/hw3/answer book-hw3.xlsx
+++ b/MDS2020 Data Mining/hw3/answer book-hw3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B482226-9653-4D97-B630-B98C64C10618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82204CF-A934-4BAD-AE06-667E46690DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,10 @@
   </si>
   <si>
     <t>OneVsOneClassifier</t>
+  </si>
+  <si>
+    <t>Rounding to 3 decimal places</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,7 +813,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -901,9 +905,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,7 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,249 +1305,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="80.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="94.54296875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="54.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="94.54296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="49.15" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="49.15" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="e" vm="1">
+      <c r="C3" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="70.900000000000006" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="70.900000000000006" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="79.900000000000006" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="79.900000000000006" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="84" customHeight="1"/>
     <row r="7" spans="1:5" ht="68.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="64.900000000000006" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="135.65" customHeight="1"/>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="42.65" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="42.65" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="e" vm="2">
+      <c r="C10" s="4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="63" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="63" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="58.9" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="58.9" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="214.9" customHeight="1"/>
     <row r="14" spans="1:5" ht="228.65" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="e" vm="3">
+      <c r="C14" s="3" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="214.9" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="e" vm="4">
+      <c r="C15" s="3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>7</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="97.9" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="71.5" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1554,53 +1558,53 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="88.15" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="78.650000000000006" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0.96</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>8</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>22</v>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="68.5" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
